--- a/_files/MOSIP_Feature_Release_v1.0.0.xlsx
+++ b/_files/MOSIP_Feature_Release_v1.0.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sampath\MOSIP\Release Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mindtree\Projects\MOSIP\IDA\Code\git-repo-open\mosip-docs-wiki-master\mosip-docs.wiki\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -260,9 +260,6 @@
     <t>Registered Devices and Open Devices TBD (IDA_FR_6.1)</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Login/Logout</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>Pre-Registration</t>
+  </si>
+  <si>
+    <t>Admin (APIs only)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -814,91 +814,91 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1187,43 +1187,43 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68:A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="B3" s="15">
         <v>43808</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1237,941 +1237,932 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>149</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="35"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="35"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="35"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="35"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="35"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="35"/>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="36"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>140</v>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="38"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="38"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="38"/>
       <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="38"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="38"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="38"/>
       <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="38"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="38"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26"/>
+    <row r="43" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="38"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+    <row r="44" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="38"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
+    <row r="45" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="38"/>
       <c r="B45" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="38"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="38"/>
       <c r="B47" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="20"/>
-    </row>
-    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="38"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+      <c r="D48" s="18"/>
+    </row>
+    <row r="49" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="38"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
+      <c r="D49" s="18"/>
+    </row>
+    <row r="50" spans="1:4" s="6" customFormat="1" ht="23" x14ac:dyDescent="0.35">
+      <c r="A50" s="38"/>
       <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="23" t="s">
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="39"/>
+      <c r="B51" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="30" t="s">
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="40" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="31"/>
-    </row>
-    <row r="53" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="29"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="38"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="29" t="s">
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="38"/>
+      <c r="B54" s="41" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="29"/>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="38"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="32"/>
-    </row>
-    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="29"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="38"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="38"/>
       <c r="B57" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="33" t="s">
+    <row r="58" spans="1:4" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="39"/>
+      <c r="B58" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="34"/>
-    </row>
-    <row r="59" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="37" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="18"/>
-    </row>
-    <row r="60" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="35"/>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="30"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="35"/>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="30"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="38"/>
+      <c r="D61" s="18"/>
+    </row>
+    <row r="62" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="30"/>
       <c r="B62" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="20"/>
-    </row>
-    <row r="63" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38"/>
-      <c r="B63" s="35" t="s">
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="30"/>
+      <c r="B63" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="20"/>
-    </row>
-    <row r="64" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="38"/>
-      <c r="B64" s="35"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="30"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="20"/>
-    </row>
-    <row r="65" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="38"/>
-      <c r="B65" s="35" t="s">
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="30"/>
+      <c r="B65" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="20"/>
-    </row>
-    <row r="66" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="38"/>
-      <c r="B66" s="35"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="30"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="20"/>
-    </row>
-    <row r="67" spans="1:4" s="10" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
-      <c r="B67" s="40" t="s">
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" s="10" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="31"/>
+      <c r="B67" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="24"/>
-    </row>
-    <row r="68" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="D67" s="21"/>
+    </row>
+    <row r="68" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="C68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="38"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D68" s="18"/>
-    </row>
-    <row r="69" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="38"/>
+      <c r="B70" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D69" s="20"/>
-    </row>
-    <row r="70" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="29" t="s">
+      <c r="C70" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="38"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D70" s="20"/>
-    </row>
-    <row r="71" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="18"/>
+    </row>
+    <row r="72" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="38"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="20"/>
-    </row>
-    <row r="72" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="18"/>
+    </row>
+    <row r="73" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="38"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="20"/>
-    </row>
-    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="18"/>
+    </row>
+    <row r="74" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="38"/>
+      <c r="B74" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="20"/>
-    </row>
-    <row r="74" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
-      <c r="B74" s="43" t="s">
+      <c r="D74" s="18"/>
+    </row>
+    <row r="75" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="38"/>
+      <c r="B75" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D74" s="20"/>
-    </row>
-    <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="43" t="s">
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="38"/>
+      <c r="B76" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="20"/>
-    </row>
-    <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="42" t="s">
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="38"/>
+      <c r="B77" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="20"/>
-    </row>
-    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
-      <c r="B77" s="29" t="s">
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="38"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="38"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="20"/>
-    </row>
-    <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="4" t="s">
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="38"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="20"/>
-    </row>
-    <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="20"/>
-    </row>
-    <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="18"/>
+    </row>
+    <row r="81" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="38"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D80" s="20"/>
-    </row>
-    <row r="81" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="38"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="82" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="4" t="s">
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="38"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D82" s="20"/>
-    </row>
-    <row r="83" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="4" t="s">
+      <c r="D83" s="18"/>
+    </row>
+    <row r="84" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="38"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D83" s="20"/>
-    </row>
-    <row r="84" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="4" t="s">
+      <c r="D84" s="18"/>
+    </row>
+    <row r="85" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="38"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="20"/>
-    </row>
-    <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="4" t="s">
+      <c r="D85" s="18"/>
+    </row>
+    <row r="86" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="38"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="20"/>
-    </row>
-    <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="18"/>
+    </row>
+    <row r="87" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="38"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="20"/>
-    </row>
-    <row r="87" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="4" t="s">
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="38"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="18"/>
+    </row>
+    <row r="89" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="38"/>
+      <c r="B89" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="20"/>
-    </row>
-    <row r="89" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="29" t="s">
+      <c r="C89" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="18"/>
+    </row>
+    <row r="90" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="38"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D89" s="20"/>
-    </row>
-    <row r="90" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="4" t="s">
+      <c r="D90" s="18"/>
+    </row>
+    <row r="91" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="38"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="20"/>
-    </row>
-    <row r="91" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="39"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:4" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="28"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="23" t="s">
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D92" s="24"/>
-    </row>
-    <row r="93" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="38"/>
+      <c r="B94" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="18"/>
-    </row>
-    <row r="94" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
-      <c r="B94" s="29" t="s">
+      <c r="C94" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="D94" s="18"/>
+    </row>
+    <row r="95" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="38"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="20"/>
-    </row>
-    <row r="95" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="4" t="s">
+      <c r="D95" s="18"/>
+    </row>
+    <row r="96" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="38"/>
+      <c r="B96" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="20"/>
-    </row>
-    <row r="96" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="29" t="s">
+      <c r="C96" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="D96" s="18"/>
+    </row>
+    <row r="97" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="38"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="20"/>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="4" t="s">
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="38"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="20"/>
-    </row>
-    <row r="98" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="4" t="s">
+      <c r="D98" s="18"/>
+    </row>
+    <row r="99" spans="1:4" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="39"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="20"/>
-    </row>
-    <row r="99" spans="1:4" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="23" t="s">
+      <c r="D99" s="21"/>
+    </row>
+    <row r="100" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="24"/>
-    </row>
-    <row r="100" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
+      <c r="B100" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="38"/>
+      <c r="B101" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D100" s="18"/>
-    </row>
-    <row r="101" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="18"/>
+    </row>
+    <row r="102" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="38"/>
+      <c r="B102" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="26"/>
-      <c r="B102" s="29" t="s">
+      <c r="C102" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="D102" s="18"/>
+    </row>
+    <row r="103" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="38"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="26"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="4" t="s">
+      <c r="D103" s="18"/>
+    </row>
+    <row r="104" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="38"/>
+      <c r="B104" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="D103" s="20"/>
-    </row>
-    <row r="104" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="26"/>
-      <c r="B104" s="29" t="s">
+      <c r="C104" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="D104" s="18"/>
+    </row>
+    <row r="105" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="38"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D104" s="20"/>
-    </row>
-    <row r="105" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="4" t="s">
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="38"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="20"/>
-    </row>
-    <row r="106" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="4" t="s">
+      <c r="D106" s="18"/>
+    </row>
+    <row r="107" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="38"/>
+      <c r="B107" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D106" s="20"/>
-    </row>
-    <row r="107" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="20"/>
-    </row>
-    <row r="108" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="D107" s="18"/>
+    </row>
+    <row r="108" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="38"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" s="18"/>
+    </row>
+    <row r="109" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="38"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="1:4" s="6" customFormat="1" ht="11.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="38"/>
+      <c r="B110" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D108" s="20"/>
-    </row>
-    <row r="109" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D109" s="20"/>
-    </row>
-    <row r="110" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
-      <c r="B110" s="8" t="s">
+      <c r="C110" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="D110" s="18"/>
+    </row>
+    <row r="111" spans="1:4" s="6" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="42"/>
+      <c r="B111" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D110" s="20"/>
-    </row>
-    <row r="111" spans="1:4" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="27"/>
-      <c r="B111" s="5" t="s">
+      <c r="C111" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D111" s="21"/>
+      <c r="D111" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A5:A33"/>
-    <mergeCell ref="A34:A51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
     <mergeCell ref="A100:A111"/>
     <mergeCell ref="B102:B103"/>
     <mergeCell ref="B104:B106"/>
@@ -2183,6 +2174,15 @@
     <mergeCell ref="A93:A99"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="B96:B99"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A5:A33"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
